--- a/biology/Microbiologie/Mycolicibacterium/Mycolicibacterium.xlsx
+++ b/biology/Microbiologie/Mycolicibacterium/Mycolicibacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mycolicibacterium est un genre de Mycobactéries créé en 2018 à la suite de la révision du genre Mycobacterium par R.S. Gupta et al.[1] Cette création a été reprise par une publication dans l'IJSEM, validant ainsi les nouveaux noms binomiaux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycolicibacterium est un genre de Mycobactéries créé en 2018 à la suite de la révision du genre Mycobacterium par R.S. Gupta et al. Cette création a été reprise par une publication dans l'IJSEM, validant ainsi les nouveaux noms binomiaux.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon la LPSN
-Provisoirement surnommé « clade Fortuitum-Vaccae » par ses auteurs, ce nouveau taxon est le plus grand des quatre nouveaux genres créés à cette occasion. Il est plus éloigné que Mycolicibacter et Mycolicibacillus du nouveau genre Mycobacterium, et se compose en quasi-totalité d'espèces auparavant classées dans ce dernier (à l'exception de M. stellarae)[3] :
+          <t>Selon la LPSN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Provisoirement surnommé « clade Fortuitum-Vaccae » par ses auteurs, ce nouveau taxon est le plus grand des quatre nouveaux genres créés à cette occasion. Il est plus éloigné que Mycolicibacter et Mycolicibacillus du nouveau genre Mycobacterium, et se compose en quasi-totalité d'espèces auparavant classées dans ce dernier (à l'exception de M. stellarae) :
 Mycolicibacterium fortuitum (da Costa Cruz 1938) Gupta et al. 2018 comb. nov. : espèce type de description du genre
 Mycolicibacterium fortuitum subsp. acetamidolyticum (Tsukamura et al. 1986)
 Mycolicibacterium fortuitum subsp. fortuitum (da Costa Cruz 1938)
@@ -604,7 +621,7 @@
 Mycolicibacterium vanbaalenii (Khan et al. 2002) Gupta et al. 2018 comb. nov.
 Mycolicibacterium vulneris (van Ingen et al. 2009) Gupta et al. 2018 comb. nov.
 Mycolicibacterium wolinskyi (Brown et al. 1999) Gupta et al. 2018 comb. nov.
-Ces nouveaux noms binomiaux sont des synonymes. Comme l'ont souligné plusieurs microbiologistes spécialistes, l'usage des anciens noms binomiaux (avec « Mycobacterium » à la place de « Mycolicibacterium ») est toujours admis[4],[5].
+Ces nouveaux noms binomiaux sont des synonymes. Comme l'ont souligné plusieurs microbiologistes spécialistes, l'usage des anciens noms binomiaux (avec « Mycobacterium » à la place de « Mycolicibacterium ») est toujours admis,.
 </t>
         </is>
       </c>
